--- a/Results (Stratified 10 Fold).xlsx
+++ b/Results (Stratified 10 Fold).xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="988" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
     <sheet name="Precision" sheetId="2" r:id="rId2"/>
-    <sheet name="FDR" sheetId="3" r:id="rId3"/>
-    <sheet name="FPR" sheetId="4" r:id="rId4"/>
-    <sheet name="AUC" sheetId="5" r:id="rId5"/>
-    <sheet name="Log Loss" sheetId="6" r:id="rId6"/>
-    <sheet name="Brier Score" sheetId="7" r:id="rId7"/>
-    <sheet name="Run Time" sheetId="8" r:id="rId8"/>
+    <sheet name="FPR" sheetId="4" r:id="rId3"/>
+    <sheet name="AUC" sheetId="5" r:id="rId4"/>
+    <sheet name="Log Loss" sheetId="6" r:id="rId5"/>
+    <sheet name="Brier Score" sheetId="7" r:id="rId6"/>
+    <sheet name="Run Time" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>Method</t>
   </si>
@@ -409,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -861,231 +860,6 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.31</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-      <c r="E2">
-        <v>0.02</v>
-      </c>
-      <c r="F2">
-        <v>0.11</v>
-      </c>
-      <c r="G2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-      <c r="C3">
-        <v>0.08</v>
-      </c>
-      <c r="D3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3">
-        <v>0.39</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.41</v>
-      </c>
-      <c r="C4">
-        <v>0.06</v>
-      </c>
-      <c r="D4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E4">
-        <v>0.02</v>
-      </c>
-      <c r="F4">
-        <v>0.41</v>
-      </c>
-      <c r="G4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.41</v>
-      </c>
-      <c r="C5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E5">
-        <v>0.02</v>
-      </c>
-      <c r="F5">
-        <v>0.33</v>
-      </c>
-      <c r="G5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.41</v>
-      </c>
-      <c r="C6">
-        <v>0.06</v>
-      </c>
-      <c r="D6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E6">
-        <v>0.02</v>
-      </c>
-      <c r="F6">
-        <v>0.32</v>
-      </c>
-      <c r="G6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.66</v>
-      </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>0.72</v>
-      </c>
-      <c r="G7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.68</v>
-      </c>
-      <c r="C8">
-        <v>0.23</v>
-      </c>
-      <c r="D8">
-        <v>0.73</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.34</v>
-      </c>
-      <c r="G8">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.64</v>
-      </c>
-      <c r="C9">
-        <v>0.24</v>
-      </c>
-      <c r="D9">
-        <v>0.73</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1306,7 +1080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1531,7 +1305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1756,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1981,11 +1755,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
